--- a/data/income_statement/2digits/size/19_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/19_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>19-Manufacture of coke and refined petroleum products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>19-Manufacture of coke and refined petroleum products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,254 +841,289 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>198654.9296</v>
+        <v>215465.72972</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>414189.01091</v>
+        <v>436533.5351</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>644412.95372</v>
+        <v>663213.46164</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>441705.4871</v>
+        <v>448211.13739</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>564934.70942</v>
+        <v>619092.90701</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>436663.15279</v>
+        <v>495267.69074</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>319774.19483</v>
+        <v>377325.86194</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>284091.07939</v>
+        <v>329112.33439</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>423269.40871</v>
+        <v>454010.33263</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>847406.8434299999</v>
+        <v>889057.6317799999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>699687.5225399999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>765321.4196499999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>616863.04</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>186034.0624</v>
+        <v>202710.21188</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>404233.48538</v>
+        <v>424001.31495</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>635074.79839</v>
+        <v>650825.2916699999</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>433577.42477</v>
+        <v>439440.45672</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>530070.7049199999</v>
+        <v>575352.45539</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>400306.36587</v>
+        <v>452848.86589</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>285211.97944</v>
+        <v>335836.58148</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>253672.88503</v>
+        <v>286693.71799</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>396282.09932</v>
+        <v>423760.13693</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>778711.04424</v>
+        <v>805792.82547</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>598943.74125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>666768.03861</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>535565.054</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>9607.48461</v>
+        <v>9595.582390000001</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>7754.712030000001</v>
+        <v>9421.058650000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>6941.509730000001</v>
+        <v>9619.594220000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>7258.21562</v>
+        <v>7928.20671</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>33764.61438</v>
+        <v>41780.56025</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>35009.13799</v>
+        <v>40400.84209000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>33023.47346</v>
+        <v>38902.35147</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>27390.23461</v>
+        <v>36122.63983</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>20062.51182</v>
+        <v>22276.78472</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>62985.10167</v>
+        <v>77043.97227</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>94727.06522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>92320.41121999999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>77180.201</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3013.38259</v>
+        <v>3159.93545</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2200.8135</v>
+        <v>3111.1615</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2396.6456</v>
+        <v>2768.57575</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>869.8467099999999</v>
+        <v>842.4739599999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1099.39012</v>
+        <v>1959.89137</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1347.64893</v>
+        <v>2017.98276</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1538.74193</v>
+        <v>2586.92899</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>3027.95975</v>
+        <v>6295.976570000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6924.797570000001</v>
+        <v>7973.410980000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>5710.69752</v>
+        <v>6220.83404</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>6016.71607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>6232.96982</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>4117.785</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1383.875</v>
+        <v>1601.1665</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3258.50308</v>
+        <v>5686.677610000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4393.818429999999</v>
+        <v>5492.59095</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1566.24224</v>
+        <v>1581.61</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4868.42571</v>
+        <v>5469.2684</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>4504.59984</v>
+        <v>4888.25026</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2398.52754</v>
+        <v>2803.16714</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>2641.90193</v>
+        <v>2802.27177</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>108515.96004</v>
+        <v>108473.64594</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6964.80129</v>
+        <v>9270.471449999999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>3121.07889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3371.202</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>4058.644</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>908.53014</v>
+        <v>1124.05008</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1435.03071</v>
+        <v>3862.22636</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3050.03705</v>
+        <v>4148.809569999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>913.2657799999999</v>
+        <v>913.4335399999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1700.07916</v>
+        <v>1794.16832</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4391.02435</v>
+        <v>4680.45404</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1863.61478</v>
+        <v>2246.24982</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>2317.82768</v>
+        <v>2431.98776</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>107780.9862</v>
+        <v>107720.20941</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5679.37933</v>
+        <v>8319.67189</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>2488.44975</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2920.05152</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>3103.478</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>381.73798</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>333.71298</v>
+        <v>334.69186</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>682.35025</v>
@@ -1196,34 +1132,39 @@
         <v>511.53447</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>479.9175</v>
+        <v>502.91839</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>62.75669</v>
+        <v>102.17497</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>406.39485</v>
+        <v>407.94546</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>262.15567</v>
+        <v>308.36543</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>20.14595</v>
+        <v>35.68564</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>573.75225</v>
+        <v>573.5522099999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>251.15383</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>253.71143</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>407.471</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>93.60688</v>
+        <v>95.37844</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>1489.75939</v>
@@ -1232,229 +1173,259 @@
         <v>661.4311300000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>141.44199</v>
+        <v>156.64199</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2688.42905</v>
+        <v>3172.18169</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>50.8188</v>
+        <v>105.62125</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>128.51791</v>
+        <v>148.97186</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>61.91858</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>714.82789</v>
+        <v>717.75089</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>711.66971</v>
+        <v>377.24735</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>381.47531</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>197.43905</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>547.6950000000001</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>197271.0546</v>
+        <v>213864.56322</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>410930.50783</v>
+        <v>430846.85749</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>640019.13529</v>
+        <v>657720.8706899999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>440139.24486</v>
+        <v>446629.52739</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>560066.2837099999</v>
+        <v>613623.6386099999</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>432158.55295</v>
+        <v>490379.44048</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>317375.66729</v>
+        <v>374522.6948</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>281449.17746</v>
+        <v>326310.06262</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>314753.44867</v>
+        <v>345536.68669</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>840442.04214</v>
+        <v>879787.1603300001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>696566.44365</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>761950.21765</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>612804.3959999999</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>177444.32517</v>
+        <v>192737.78287</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>380887.62756</v>
+        <v>398508.92465</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>604802.2117699999</v>
+        <v>622755.2551699999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>417801.00355</v>
+        <v>425132.29578</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>525357.95128</v>
+        <v>569512.58988</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>399983.3849899999</v>
+        <v>456418.9802399999</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>287337.82949</v>
+        <v>337506.24886</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>247961.8933</v>
+        <v>287924.24483</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>291291.65863</v>
+        <v>316346.62947</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>740475.2711499999</v>
+        <v>774924.20823</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>626646.9545499999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>683704.9564800001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>526921.206</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>138989.80868</v>
+        <v>151327.8268</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>260181.01687</v>
+        <v>276340.60445</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>373186.01034</v>
+        <v>388698.24757</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>218981.19977</v>
+        <v>222096.54263</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>245085.10795</v>
+        <v>279382.54201</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>179243.47604</v>
+        <v>211099.57762</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>160753.6572</v>
+        <v>192059.93425</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>130616.25412</v>
+        <v>140262.6538</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>114743.26135</v>
+        <v>125166.59649</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>446543.57705</v>
+        <v>474661.14978</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>359846.278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>401859.25084</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>305129.693</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>32048.08293</v>
+        <v>35005.32785</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>113521.48939</v>
+        <v>114070.58239</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>227534.91915</v>
+        <v>231444.02331</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>196505.52551</v>
+        <v>201213.6782</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>276891.23628</v>
+        <v>286760.47404</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>208239.74419</v>
+        <v>231766.43275</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>124606.87044</v>
+        <v>142304.62428</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>115201.06501</v>
+        <v>142674.92541</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>169515.30067</v>
+        <v>184265.12412</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>278715.54331</v>
+        <v>281182.87599</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>248361.23473</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>254998.31398</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>215237.539</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>5723.026360000001</v>
+        <v>5721.22102</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>6877.696650000001</v>
+        <v>7790.31316</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3862.48566</v>
+        <v>2506.93767</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1796.39068</v>
+        <v>1343.25351</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3381.60705</v>
+        <v>3369.57383</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>12306.49077</v>
+        <v>13162.14939</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1937.30185</v>
+        <v>2651.45351</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1002.27191</v>
+        <v>3822.36336</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>6283.23654</v>
+        <v>6283.05374</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15005.97587</v>
+        <v>18870.00754</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4203.3022</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12610.92249</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6444.132</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>683.4072</v>
@@ -1463,115 +1434,130 @@
         <v>307.42465</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>218.79662</v>
+        <v>106.04662</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>517.88759</v>
+        <v>478.82144</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>193.67399</v>
+        <v>390.82048</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>40</v>
+        <v>490.23682</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>1142.30226</v>
+        <v>1164.30226</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>749.86007</v>
+        <v>631.8551199999999</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>210.17492</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>14236.13962</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>14236.46917</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>109.842</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>19826.72943</v>
+        <v>21126.78035</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>30042.88027</v>
+        <v>32337.93284</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>35216.92352</v>
+        <v>34965.61552000001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>22338.24131</v>
+        <v>21497.23161</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>34708.33243</v>
+        <v>44111.04873</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>32175.16796</v>
+        <v>33960.46024</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>30037.8378</v>
+        <v>37016.44594000001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>33487.28416</v>
+        <v>38385.81779</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>23461.79004</v>
+        <v>29190.05722</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>99966.77098999999</v>
+        <v>104862.9521</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>69919.48909999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>78245.26117</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>85883.19</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>13753.97373</v>
+        <v>13708.69759</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>22334.06352</v>
+        <v>32803.42585</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>25824.74434</v>
+        <v>30204.1963</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>20770.7142</v>
+        <v>19856.48842</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>29886.28429</v>
+        <v>33086.72862</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>31010.04104</v>
+        <v>30624.79042</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>24871.32201</v>
+        <v>31488.62955</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>25548.54628</v>
+        <v>29835.0697</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>24076.47903</v>
+        <v>29143.66631</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>49189.23753</v>
+        <v>51759.96389</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>43893.71106</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>51290.54406</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>54687.053</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>187.5214</v>
@@ -1580,193 +1566,218 @@
         <v>98.64055</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>47.89988</v>
+        <v>48.08111</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>38.52480000000001</v>
+        <v>40.0748</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>278.7835</v>
+        <v>290.16303</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>4.04068</v>
+        <v>9.314159999999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>85.75876</v>
+        <v>99.37303</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>136.71378</v>
+        <v>257.94952</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>8.960000000000001</v>
+        <v>481.0507</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>594.17108</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>928.25835</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>756.8455300000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>609.879</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4075.98721</v>
+        <v>4185.55476</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>5827.4337</v>
+        <v>5262.89583</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6243.65429</v>
+        <v>6800.05916</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4308.287069999999</v>
+        <v>4455.45609</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>9668.084870000001</v>
+        <v>10999.66258</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9219.572040000001</v>
+        <v>9585.463159999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>7764.29157</v>
+        <v>9448.03242</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8411.034740000001</v>
+        <v>9259.331229999998</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>7641.706099999999</v>
+        <v>7799.5548</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>16378.69789</v>
+        <v>16683.7757</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>14286.64096</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>15040.51641</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>18964.64</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>9490.465119999999</v>
+        <v>9335.621429999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>16407.98927</v>
+        <v>27441.88947</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>19533.19017</v>
+        <v>23356.05603</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>16423.90233</v>
+        <v>15360.95753</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>19939.41592</v>
+        <v>21796.90301</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>21786.42832</v>
+        <v>21030.0131</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>17021.27168</v>
+        <v>21941.2241</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>17000.79776</v>
+        <v>20317.78895</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>16425.81293</v>
+        <v>20863.06081</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>32216.36856</v>
+        <v>34482.01711</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>28678.81175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>35493.18212</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>35112.534</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>6072.755700000001</v>
+        <v>7418.082759999999</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>7708.81675</v>
+        <v>-465.49301</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>9392.179179999999</v>
+        <v>4761.41922</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>1567.52711</v>
+        <v>1640.74319</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>4822.04814</v>
+        <v>11024.32011</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1165.12692</v>
+        <v>3335.669819999999</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>5166.51579</v>
+        <v>5527.816390000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>7938.73788</v>
+        <v>8550.748089999999</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-614.68899</v>
+        <v>46.39091000000001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>50777.53346</v>
+        <v>53102.98821</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>26025.77804</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>26954.71711</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>31196.137</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1268.92283</v>
+        <v>1442.11975</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1293.9502</v>
+        <v>7137.72317</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2950.78727</v>
+        <v>10631.31198</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2232.83224</v>
+        <v>1837.66095</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>3197.84224</v>
+        <v>4203.99101</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>2746.57868</v>
+        <v>5120.14932</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>4032.49476</v>
+        <v>9216.428039999999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2718.41587</v>
+        <v>3670.0773</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3613.59539</v>
+        <v>2944.91178</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>16188.63843</v>
+        <v>21777.38923</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>10365.5779</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>13907.72719</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>19700.16</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0.07873000000000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>431.09133</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>364.23813</v>
+        <v>467.49488</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>237.64938</v>
+        <v>2367.77529</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>423.26773</v>
+        <v>2023.18722</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>448.39534</v>
+        <v>114.90789</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>248.77122</v>
+        <v>361.81456</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>274.8734</v>
+        <v>388.37467</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>258.72792</v>
+        <v>3024.27388</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>535.1283199999999</v>
+        <v>452.30533</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>408.41646</v>
+        <v>275.18551</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1464.20222</v>
+        <v>2863.56945</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1112.6541</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2334.47903</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>4678.063</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
@@ -1898,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>5.180020000000001</v>
+        <v>60.57941</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>10.10695</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2.868</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>0.314</v>
+        <v>25.271</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>1.35263</v>
@@ -1940,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>0</v>
+        <v>10.04747</v>
       </c>
       <c r="I30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>10.037</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>34.60605</v>
@@ -1957,14 +1988,19 @@
       <c r="M30" s="48" t="n">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>26.21932</v>
+        <v>62.2766</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>8.76539</v>
@@ -1976,13 +2012,13 @@
         <v>19.96879</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>12.32269</v>
+        <v>17.76769</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>14.55093</v>
+        <v>28.99724</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>0.00043</v>
+        <v>3.23427</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>0</v>
@@ -1994,52 +2030,62 @@
         <v>133.5792</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>36.30393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>12.46553</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>46.225</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>775.7142299999999</v>
+        <v>759.934</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>843.6414100000001</v>
+        <v>3647.54662</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1540.75527</v>
+        <v>1208.51784</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>843.19501</v>
+        <v>815.73222</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2714.87935</v>
+        <v>3313.16055</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1835.76855</v>
+        <v>4512.71341</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3060.00654</v>
+        <v>5996.63458</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1256.95631</v>
+        <v>2795.58015</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>808.17818</v>
+        <v>588.797</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12484.59404</v>
+        <v>17345.75488</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5963.23838</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9335.92474</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>12814.765</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>195.34306</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>23.594</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>102.35842</v>
+        <v>127.06454</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>200.42966</v>
+        <v>1110.17151</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>971.7632199999999</v>
+        <v>7384.60587</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>918.18325</v>
+        <v>883.9621999999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>216.5992</v>
+        <v>450.57904</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>589.34037</v>
+        <v>147.9711</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>701.77172</v>
+        <v>180.29716</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>914.8224399999999</v>
+        <v>400.64602</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2359.30283</v>
+        <v>2043.23135</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2101.6203</v>
+        <v>1429.84303</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2601.9471</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1573.4235</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2134.645</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1495.12545</v>
+        <v>1504.90693</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1188.98184</v>
+        <v>4880.93321</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2405.50529</v>
+        <v>5645.29016</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1267.69212</v>
+        <v>1213.29375</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5277.1658</v>
+        <v>5413.89228</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3408.31355</v>
+        <v>4717.97716</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5284.97907</v>
+        <v>8099.47097</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>9337.163430000001</v>
+        <v>10862.95455</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>3172.02929</v>
+        <v>2402.76394</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>17460.45887</v>
+        <v>22692.2163</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12851.79893</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>14076.85732</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>17817.643</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>405.73505</v>
@@ -2207,7 +2273,7 @@
         <v>13.58347</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>420.04621</v>
+        <v>420.03631</v>
       </c>
       <c r="G37" s="48" t="n">
         <v>381.69814</v>
@@ -2216,13 +2282,13 @@
         <v>349.1019700000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>277.2437</v>
+        <v>275.04941</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>192.16786</v>
+        <v>205.90901</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>151.60063</v>
+        <v>148.42266</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>608.13096</v>
@@ -2230,17 +2296,22 @@
       <c r="M37" s="48" t="n">
         <v>537.8464200000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>436.361</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>168.94208</v>
+        <v>194.98556</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>0</v>
+        <v>9.55631</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>0</v>
@@ -2249,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>40</v>
+        <v>63.8665</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>323.13309</v>
+        <v>344.62778</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>664.1341199999999</v>
@@ -2261,19 +2332,24 @@
         <v>7503.38804</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>1346.15455</v>
+        <v>564.0898000000001</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>388.6416</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>4663.23402</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>4678.55565</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>247.933</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>709.1429300000001</v>
+        <v>692.88093</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1001.3103</v>
+        <v>4704.22634</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2143.55675</v>
+        <v>5378.83055</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>701.4877999999999</v>
+        <v>648.3600199999998</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4711.995859999999</v>
+        <v>4699.88123</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2661.85531</v>
+        <v>3832.16102</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>4241.44595</v>
+        <v>6848.72535</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1616.57486</v>
+        <v>2966.95022</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1533.44332</v>
+        <v>1383.05554</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>15164.90594</v>
+        <v>20309.59311</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6521.8337</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>7366.71922</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>15273.622</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>140.18153</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>21.814</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>211.30539</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>130.82962</v>
+        <v>110.30864</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>234.67656</v>
+        <v>239.18763</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>146.15811</v>
+        <v>144.89742</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>143.4718</v>
+        <v>268.44641</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>74.22318</v>
+        <v>192.08639</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>102.1553</v>
+        <v>311.56209</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>25.03267</v>
+        <v>186.70728</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>140.83079</v>
+        <v>307.19594</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>1238.19575</v>
+        <v>1325.26601</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>988.70326</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1353.5545</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1837.903</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2439.88389</v>
+        <v>2586.82438</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1590.3987</v>
+        <v>1885.28339</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2507.01122</v>
+        <v>4824.21604</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2238.57473</v>
+        <v>2058.43102</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4142.56401</v>
+        <v>6154.82397</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5144.83093</v>
+        <v>5666.69168</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3844.65712</v>
+        <v>7534.13037</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3707.92513</v>
+        <v>5402.97609</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3335.83156</v>
+        <v>4026.47148</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>19886.27401</v>
+        <v>22288.05202</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>11407.51871</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>12241.28247</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>9697.621999999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2439.88389</v>
+        <v>2586.82438</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1590.3987</v>
+        <v>1885.28339</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2385.87515</v>
+        <v>4684.67571</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2069.88613</v>
+        <v>1889.74242</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3791.38235</v>
+        <v>6038.90123</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>5144.83093</v>
+        <v>5666.69168</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3803.64822</v>
+        <v>7468.417769999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3667.05284</v>
+        <v>5362.1038</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3335.70996</v>
+        <v>4026.34988</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>19886.27401</v>
+        <v>22288.05202</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>11141.25931</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>12125.38472</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>8815.853999999999</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>0</v>
@@ -2555,19 +2666,19 @@
         <v>0</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>121.13607</v>
+        <v>139.54033</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>168.6886</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>351.18166</v>
+        <v>115.92274</v>
       </c>
       <c r="H46" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>41.0089</v>
+        <v>65.71260000000001</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>40.87229</v>
@@ -2579,91 +2690,106 @@
         <v>0</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>266.2594</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>115.89775</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>881.768</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3406.66919</v>
+        <v>4768.4712</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>6223.38641</v>
+        <v>-93.98644</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>7430.44994</v>
+        <v>4923.225</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>294.0925</v>
+        <v>206.67937</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-1399.83943</v>
+        <v>3659.59487</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-4641.43888</v>
+        <v>-1928.8497</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>69.37436</v>
+        <v>-889.3569100000001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-2387.93481</v>
+        <v>-4045.10525</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-3508.95445</v>
+        <v>-3437.93273</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>29619.43901</v>
+        <v>29900.10912</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>12132.0383</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>14544.30451</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>23381.032</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1286.70222</v>
+        <v>1394.59958</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1089.07886</v>
+        <v>617.32011</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>476.7248</v>
+        <v>892.94876</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1225.65246</v>
+        <v>734.83282</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1633.80795</v>
+        <v>1693.61065</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3584.83237</v>
+        <v>2491.44188</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2912.77035</v>
+        <v>3180.00708</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>998.92796</v>
+        <v>1190.49809</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1280.82553</v>
+        <v>1414.72097</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2975.4828</v>
+        <v>3104.22158</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6693.69316</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>8598.843369999999</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3224.423</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0</v>
@@ -2672,7 +2798,7 @@
         <v>10.42221</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>18.81028</v>
+        <v>20.38464</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>0</v>
@@ -2681,13 +2807,13 @@
         <v>2.56577</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>0</v>
+        <v>56.26741000000001</v>
       </c>
       <c r="I49" s="48" t="n">
         <v>34.02641000000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>10.44734</v>
+        <v>8.654999999999999</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>0</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>1.03364</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>180.587</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>1286.70222</v>
+        <v>1394.59958</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1078.65665</v>
+        <v>606.8979</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>457.91452</v>
+        <v>872.56412</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1225.65246</v>
+        <v>734.83282</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1631.24218</v>
+        <v>1691.04488</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3584.83237</v>
+        <v>2435.17447</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2878.74394</v>
+        <v>3145.98067</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>988.48062</v>
+        <v>1181.84309</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1280.82553</v>
+        <v>1414.72097</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2975.4828</v>
+        <v>3104.22158</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6692.659519999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8597.809730000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3043.836</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>948.1237600000001</v>
+        <v>1662.60589</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1538.61332</v>
+        <v>910.2656800000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>21164.85971</v>
+        <v>15490.23942</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2426.41322</v>
+        <v>2369.83066</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3547.85644</v>
+        <v>3866.60785</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1798.59594</v>
+        <v>2106.23064</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>904.4096800000001</v>
+        <v>2061.75356</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>5556.13383</v>
+        <v>4406.56802</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3169.681</v>
+        <v>3115.31053</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>7693.48672</v>
+        <v>8136.93422</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>5043.67182</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3931.11411</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2940.058</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>288.19727</v>
@@ -2792,19 +2933,19 @@
         <v>109.71887</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>85.82731</v>
+        <v>42.17171</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>29.47252</v>
+        <v>78.07647</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>138.467</v>
+        <v>108.98146</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>39.82475</v>
+        <v>67.15289</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>323.9883</v>
+        <v>259.84867</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>101.25209</v>
@@ -2813,34 +2954,39 @@
         <v>169.34864</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>367.49378</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>286.50603</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>508.207</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>122.62423</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>313.8491</v>
+        <v>229.08497</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>10.46796</v>
+        <v>9.35398</v>
       </c>
       <c r="F53" s="48" t="n">
         <v>806.1468299999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>2.65</v>
+        <v>39.45756</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14.6565</v>
+        <v>14.65722</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>0.33699</v>
+        <v>114.66155</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>29.15792</v>
@@ -2852,166 +2998,189 @@
         <v>49.89388</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>10.43705</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>84.43510000000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>18.41</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>537.30226</v>
+        <v>1251.78439</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1110.89768</v>
+        <v>567.31417</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>21044.67288</v>
+        <v>15371.16657</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1534.43908</v>
+        <v>1521.51212</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3515.73392</v>
+        <v>3749.07382</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1645.47244</v>
+        <v>1982.59196</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>864.24794</v>
+        <v>1879.93912</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>5202.98761</v>
+        <v>4117.56143</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2722.89794</v>
+        <v>2668.52747</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>7474.2442</v>
+        <v>7917.6917</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>4665.74099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3560.17298</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>2413.441</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3745.24765</v>
+        <v>4500.464889999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>5773.85195</v>
+        <v>-386.93201</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-13257.68497</v>
+        <v>-9674.06566</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-906.6682599999999</v>
+        <v>-1428.31847</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-3313.88792</v>
+        <v>1486.59767</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-2855.20245</v>
+        <v>-1543.63846</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>2077.73503</v>
+        <v>228.89661</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-6945.14068</v>
+        <v>-7261.175179999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-5397.80992</v>
+        <v>-5138.52229</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>24901.43509</v>
+        <v>24867.39648</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>13782.05964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>19212.03377</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>23665.397</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>668.2802800000001</v>
+        <v>852.54489</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1433.87823</v>
+        <v>1593.30138</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1753.90667</v>
+        <v>1545.0057</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>738.7278100000001</v>
+        <v>714.37679</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>2049.30326</v>
+        <v>2327.78355</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1557.10326</v>
+        <v>1799.01798</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1748.67433</v>
+        <v>2220.36955</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1842.82412</v>
+        <v>1949.84006</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1233.07086</v>
+        <v>1304.55085</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6397.82964</v>
+        <v>6367.30745</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3786.64539</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>4766.655070000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4141.477</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>3076.96737</v>
+        <v>3647.92</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>4339.97372</v>
+        <v>-1980.23339</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-15011.59164</v>
+        <v>-11219.07136</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-1645.39607</v>
+        <v>-2142.69526</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-5363.19118</v>
+        <v>-841.18588</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-4412.30571</v>
+        <v>-3342.65644</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>329.0606999999999</v>
+        <v>-1991.47294</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-8787.9648</v>
+        <v>-9211.015239999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-6630.88078</v>
+        <v>-6443.07314</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>18503.60545</v>
+        <v>18500.08903</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>9995.41425</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>14445.3787</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>19523.92</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>63</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>